--- a/Case1/datacase1.xlsx
+++ b/Case1/datacase1.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
   <si>
     <t xml:space="preserve">Swap rates</t>
   </si>
@@ -91,6 +91,33 @@
   </si>
   <si>
     <t xml:space="preserve">EUSA20 CMPL Curncy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 year swap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">first payment </t>
+  </si>
+  <si>
+    <t xml:space="preserve">amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">discount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">final payment</t>
   </si>
   <si>
     <t xml:space="preserve">Cash flow (x 1,000)</t>
@@ -127,7 +154,7 @@
     <numFmt numFmtId="172" formatCode="#,##0.00"/>
     <numFmt numFmtId="173" formatCode="0.00%"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -161,6 +188,12 @@
       <name val="Courier New"/>
       <family val="3"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -251,23 +284,23 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="4" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -307,11 +340,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -335,7 +368,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -343,11 +376,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="169" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -363,7 +396,7 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="=C:\WINNT35\SYSTEM32\COMMAND.COM" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -376,7 +409,7 @@
   <dimension ref="A1:AK1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -391,9 +424,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="38" style="0" width="8.53"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="n">
-        <v>44235</v>
+        <v>-0.00512020481640652</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -821,6 +854,94 @@
       <c r="K21" s="11"/>
       <c r="AJ21" s="6"/>
       <c r="AK21" s="7"/>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>-0.512</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>-0.52</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C30" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C31" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <f aca="false">D28/((1+D29/100)^D30)</f>
+        <v>-0.514676316847608</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <f aca="false">100-0.512</f>
+        <v>99.488</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C34" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>-0.512020481640652</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C35" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C36" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <f aca="false">D33/((1+D34/100)^D35)</f>
+        <v>100.514676316848</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D39" s="0" t="n">
+        <f aca="false">D36+D31</f>
+        <v>100</v>
+      </c>
     </row>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -867,13 +988,13 @@
         <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F1" s="17"/>
       <c r="G1" s="4"/>
@@ -1782,13 +1903,13 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
